--- a/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO-20-07-21.xlsx
+++ b/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO-20-07-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oinetsrv\Google Drive\PROJETOS\2020 - 1 - CONTROLTECH\20 - PROJETO DISPLAY RF433MHZ\display_remoto_p10_arduino_RF_433MHZ\LISTA_DE_MATERIAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C4FAC3-3502-46F5-8CCF-40DB318FA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C56126C-6A35-4721-886D-94B4CEFBD737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-2190" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Display com semáfaro simples COMPRA 4 UNIDADES</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Reles auxiliares</t>
   </si>
   <si>
-    <t>Eletroduto Galvanizado Médio 2 3m</t>
-  </si>
-  <si>
     <t>Eletroduto Flex Preto Reforçado 3/4</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 20/07/2021</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1738043181-botoeira-industrial-com-3-botoes-on-off-emergencia-_JM#position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=7baa11c9-f4e9-451e-9915-3c01e3f2f4e8</t>
+  </si>
+  <si>
+    <t>Botoeira Industrial Com 3 Botões On / Off / Emergencia</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +176,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -402,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -496,6 +505,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,7 +740,7 @@
   <dimension ref="B1:G915"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="B2:G20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -739,7 +763,7 @@
     <row r="1" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -776,39 +800,39 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="38">
         <v>2</v>
       </c>
-      <c r="D5" s="15">
-        <v>266</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="39">
+        <v>295</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="16">
-        <f>D5*C5</f>
-        <v>532</v>
+        <f t="shared" ref="G5:G19" si="0">D5*C5</f>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="38">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39">
         <v>124</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="40">
         <v>44308</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="16">
-        <f t="shared" ref="G6:G19" si="0">D6*C6</f>
-        <v>248</v>
+        <f t="shared" si="0"/>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -816,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15">
         <v>45</v>
@@ -827,7 +851,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -870,7 +894,7 @@
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="26">
         <v>2</v>
@@ -889,7 +913,7 @@
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="26">
         <v>2</v>
@@ -914,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="25">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E12" s="24">
         <v>44308</v>
@@ -922,25 +946,29 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>120</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -953,7 +981,7 @@
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -966,7 +994,7 @@
     </row>
     <row r="16" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="15"/>
@@ -979,7 +1007,7 @@
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
@@ -989,7 +1017,7 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="16">
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
@@ -1024,7 +1052,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="8">
         <f>SUM(G5:G19)</f>
-        <v>1762.1</v>
+        <v>1679.1</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,15 +1063,19 @@
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
     </row>
